--- a/src/categories.xlsx
+++ b/src/categories.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,13 +409,31 @@
       <c r="B1" t="str">
         <v>name</v>
       </c>
+      <c r="C1" t="str">
+        <v>order</v>
+      </c>
+      <c r="D1" t="str">
+        <v>hidden</v>
+      </c>
+      <c r="E1" t="str">
+        <v>tv</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Weed</v>
+        <v>dry</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>false</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +441,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Hash</v>
+        <v>edible</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>false</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -431,28 +458,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Ice</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>test</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>edoardo</v>
+        <v>ice</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>false</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/categories.xlsx
+++ b/src/categories.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -430,10 +430,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>false</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>true</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -449,8 +449,8 @@
       <c r="D3" t="str">
         <v>false</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="str">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -470,9 +470,77 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="str">
+        <v>hash</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>false</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="str">
+        <v>rosin</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <v>true</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="str">
+        <v>test a</v>
+      </c>
+      <c r="C7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D7" t="str">
+        <v>true</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="str">
+        <v>test</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="str">
+        <v>true</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/categories.xlsx
+++ b/src/categories.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -418,19 +418,22 @@
       <c r="E1" t="str">
         <v>tv</v>
       </c>
+      <c r="F1" t="str">
+        <v>parent_id</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>dry</v>
+        <v>HASH</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="E2" t="str">
         <v>2</v>
@@ -441,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>edible</v>
+        <v>POLEN</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -458,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>ice</v>
+        <v>ICE O LATOR</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -468,6 +471,9 @@
       </c>
       <c r="E4">
         <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="str">
-        <v>hash</v>
+        <v>FROZEN</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -485,6 +491,9 @@
       </c>
       <c r="E5" t="str">
         <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="str">
-        <v>rosin</v>
+        <v>ROSIN</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -503,44 +512,90 @@
       <c r="E6" t="str">
         <v>2</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="str">
+        <v>WEED</v>
+      </c>
+      <c r="C7">
         <v>10</v>
-      </c>
-      <c r="B7" t="str">
-        <v>test a</v>
-      </c>
-      <c r="C7" t="str">
-        <v>7</v>
       </c>
       <c r="D7" t="str">
         <v>true</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="str">
-        <v>test</v>
+        <v>SATIVA</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="str">
-        <v>true</v>
-      </c>
-      <c r="E8" t="str">
-        <v>1</v>
+        <v>false</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="str">
+        <v>INDICA</v>
+      </c>
+      <c r="C9" t="str">
+        <v>11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>false</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="str">
+        <v>IBRIDA</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" t="str">
+        <v>false</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/categories.xlsx
+++ b/src/categories.xlsx
@@ -586,11 +586,11 @@
       <c r="D10" t="str">
         <v>false</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" t="str">
+        <v>2</v>
       </c>
       <c r="F10" t="str">
-        <v>11</v>
+        <v/>
       </c>
     </row>
   </sheetData>
